--- a/Data/colistin_pk_1st.xlsx
+++ b/Data/colistin_pk_1st.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1341,61 +1341,61 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B30" t="str">
         <v>0</v>
       </c>
       <c r="C30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D30" t="str">
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F30" t="str">
         <v>0</v>
       </c>
       <c r="G30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="str">
         <v>0</v>
       </c>
       <c r="I30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J30" t="str">
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N30" t="str">
         <v>0</v>
       </c>
       <c r="O30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P30" t="str">
         <v>0</v>
       </c>
       <c r="Q30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R30" t="str">
         <v>0</v>
       </c>
       <c r="S30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T30" t="str">
         <v>0</v>
       </c>
       <c r="U30" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V30" t="str">
         <v>0</v>
@@ -1403,849 +1403,849 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="B31" t="str">
-        <v>2870</v>
+        <v>12000</v>
       </c>
       <c r="C31" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="str">
-        <v>966</v>
+        <v>11100</v>
       </c>
       <c r="E31" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F31" t="str">
-        <v>1420</v>
+        <v>29000</v>
       </c>
       <c r="G31" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H31" t="str">
-        <v>1070</v>
+        <v>9770</v>
       </c>
       <c r="I31" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J31" t="str">
-        <v>1030</v>
+        <v>8690</v>
       </c>
       <c r="M31" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N31" t="str">
-        <v>864</v>
+        <v>3130</v>
       </c>
       <c r="O31" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P31" t="str">
-        <v>308</v>
+        <v>2930</v>
       </c>
       <c r="Q31" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R31" t="str">
-        <v>429</v>
+        <v>7800</v>
       </c>
       <c r="S31" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="T31" t="str">
-        <v>314</v>
+        <v>2460</v>
       </c>
       <c r="U31" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="V31" t="str">
-        <v>337</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="str">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="C32" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D32" t="str">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="E32" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F32" t="str">
-        <v>29000</v>
+        <v>23800</v>
       </c>
       <c r="G32" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="str">
-        <v>9770</v>
+        <v>11500</v>
       </c>
       <c r="I32" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J32" t="str">
-        <v>8690</v>
+        <v>6810</v>
       </c>
       <c r="M32" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N32" t="str">
-        <v>3130</v>
+        <v>3480</v>
       </c>
       <c r="O32" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P32" t="str">
-        <v>2930</v>
+        <v>2910</v>
       </c>
       <c r="Q32" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R32" t="str">
-        <v>7800</v>
+        <v>6440</v>
       </c>
       <c r="S32" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T32" t="str">
-        <v>2460</v>
+        <v>3100</v>
       </c>
       <c r="U32" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V32" t="str">
-        <v>2150</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="str">
-        <v>14000</v>
+        <v>11400</v>
       </c>
       <c r="C33" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="str">
-        <v>10700</v>
+        <v>9660</v>
       </c>
       <c r="E33" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="str">
-        <v>23800</v>
+        <v>16500</v>
       </c>
       <c r="G33" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="str">
-        <v>11500</v>
+        <v>9910</v>
       </c>
       <c r="I33" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="str">
-        <v>6810</v>
+        <v>8030</v>
       </c>
       <c r="M33" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="str">
-        <v>3480</v>
+        <v>2860</v>
       </c>
       <c r="O33" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P33" t="str">
-        <v>2910</v>
+        <v>2560</v>
       </c>
       <c r="Q33" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R33" t="str">
-        <v>6440</v>
+        <v>4370</v>
       </c>
       <c r="S33" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="str">
-        <v>3100</v>
+        <v>2620</v>
       </c>
       <c r="U33" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V33" t="str">
-        <v>1820</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" t="str">
-        <v>11400</v>
+        <v>5170</v>
       </c>
       <c r="C34" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D34" t="str">
-        <v>9660</v>
+        <v>5100</v>
       </c>
       <c r="E34" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" t="str">
-        <v>16500</v>
+        <v>12600</v>
       </c>
       <c r="G34" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H34" t="str">
-        <v>9910</v>
+        <v>7170</v>
       </c>
       <c r="I34" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J34" t="str">
-        <v>8030</v>
+        <v>4030</v>
       </c>
       <c r="M34" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N34" t="str">
-        <v>2860</v>
+        <v>1260</v>
       </c>
       <c r="O34" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P34" t="str">
-        <v>2560</v>
+        <v>1380</v>
       </c>
       <c r="Q34" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="str">
-        <v>4370</v>
+        <v>3300</v>
       </c>
       <c r="S34" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="T34" t="str">
-        <v>2620</v>
+        <v>1750</v>
       </c>
       <c r="U34" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="V34" t="str">
-        <v>2180</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="str">
-        <v>5170</v>
+        <v>2580</v>
       </c>
       <c r="C35" t="str">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="D35" t="str">
-        <v>5100</v>
+        <v>4020</v>
       </c>
       <c r="E35" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35" t="str">
-        <v>12600</v>
+        <v>7750</v>
       </c>
       <c r="G35" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="H35" t="str">
-        <v>7170</v>
+        <v>5940</v>
       </c>
       <c r="I35" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="J35" t="str">
-        <v>4030</v>
+        <v>4160</v>
       </c>
       <c r="M35" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N35" t="str">
-        <v>1260</v>
+        <v>649</v>
       </c>
       <c r="O35" t="str">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="P35" t="str">
-        <v>1380</v>
+        <v>1100</v>
       </c>
       <c r="Q35" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R35" t="str">
-        <v>3300</v>
+        <v>2100</v>
       </c>
       <c r="S35" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="T35" t="str">
-        <v>1750</v>
+        <v>1690</v>
       </c>
       <c r="U35" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="V35" t="str">
-        <v>1190</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B36" t="str">
-        <v>2580</v>
+        <v>2620</v>
       </c>
       <c r="C36" t="str">
-        <v>8.5</v>
+        <v>93.5</v>
       </c>
       <c r="D36" t="str">
-        <v>4020</v>
+        <v>7390</v>
       </c>
       <c r="E36" t="str">
-        <v>8</v>
+        <v>115.16</v>
       </c>
       <c r="F36" t="str">
-        <v>7750</v>
+        <v>6140</v>
       </c>
       <c r="G36" t="str">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="H36" t="str">
-        <v>5940</v>
+        <v>3710</v>
       </c>
       <c r="I36" t="str">
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
       <c r="J36" t="str">
-        <v>4160</v>
+        <v>3060</v>
       </c>
       <c r="M36" t="str">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="N36" t="str">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="O36" t="str">
-        <v>8.5</v>
+        <v>93.5</v>
       </c>
       <c r="P36" t="str">
-        <v>1100</v>
+        <v>1640</v>
       </c>
       <c r="Q36" t="str">
-        <v>8</v>
+        <v>115.16</v>
       </c>
       <c r="R36" t="str">
-        <v>2100</v>
+        <v>1630</v>
       </c>
       <c r="S36" t="str">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="T36" t="str">
-        <v>1690</v>
+        <v>989</v>
       </c>
       <c r="U36" t="str">
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
       <c r="V36" t="str">
-        <v>1140</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B37" t="str">
-        <v>2620</v>
+        <v>16200</v>
       </c>
       <c r="C37" t="str">
-        <v>93.5</v>
+        <v>96.5</v>
       </c>
       <c r="D37" t="str">
-        <v>7390</v>
+        <v>10200</v>
       </c>
       <c r="E37" t="str">
-        <v>115.16</v>
+        <v>117.16</v>
       </c>
       <c r="F37" t="str">
-        <v>6140</v>
+        <v>8950</v>
       </c>
       <c r="G37" t="str">
-        <v>12.5</v>
+        <v>96.66</v>
       </c>
       <c r="H37" t="str">
-        <v>3710</v>
+        <v>3450</v>
       </c>
       <c r="I37" t="str">
-        <v>24.5</v>
+        <v>133.5</v>
       </c>
       <c r="J37" t="str">
-        <v>3060</v>
+        <v>3150</v>
       </c>
       <c r="M37" t="str">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N37" t="str">
-        <v>644</v>
+        <v>4100</v>
       </c>
       <c r="O37" t="str">
-        <v>93.5</v>
+        <v>96.5</v>
       </c>
       <c r="P37" t="str">
-        <v>1640</v>
+        <v>2750</v>
       </c>
       <c r="Q37" t="str">
-        <v>115.16</v>
+        <v>117.16</v>
       </c>
       <c r="R37" t="str">
-        <v>1630</v>
+        <v>2310</v>
       </c>
       <c r="S37" t="str">
-        <v>12.5</v>
+        <v>96.66</v>
       </c>
       <c r="T37" t="str">
-        <v>989</v>
+        <v>955</v>
       </c>
       <c r="U37" t="str">
-        <v>24.5</v>
+        <v>133.5</v>
       </c>
       <c r="V37" t="str">
-        <v>846</v>
+        <v>885</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B38" t="str">
-        <v>16200</v>
+        <v>7370</v>
       </c>
       <c r="C38" t="str">
-        <v>96.5</v>
+        <v>98.5</v>
       </c>
       <c r="D38" t="str">
-        <v>10200</v>
+        <v>9260</v>
       </c>
       <c r="E38" t="str">
-        <v>117.16</v>
+        <v>119.16</v>
       </c>
       <c r="F38" t="str">
-        <v>8950</v>
+        <v>7110</v>
       </c>
       <c r="G38" t="str">
-        <v>96.66</v>
+        <v>98.66</v>
       </c>
       <c r="H38" t="str">
-        <v>3450</v>
+        <v>11600</v>
       </c>
       <c r="I38" t="str">
-        <v>133.5</v>
+        <v>135.5</v>
       </c>
       <c r="J38" t="str">
-        <v>3150</v>
+        <v>4170</v>
       </c>
       <c r="M38" t="str">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N38" t="str">
-        <v>4100</v>
+        <v>1760</v>
       </c>
       <c r="O38" t="str">
-        <v>96.5</v>
+        <v>98.5</v>
       </c>
       <c r="P38" t="str">
-        <v>2750</v>
+        <v>2500</v>
       </c>
       <c r="Q38" t="str">
-        <v>117.16</v>
+        <v>119.16</v>
       </c>
       <c r="R38" t="str">
-        <v>2310</v>
+        <v>1790</v>
       </c>
       <c r="S38" t="str">
-        <v>96.66</v>
+        <v>98.66</v>
       </c>
       <c r="T38" t="str">
-        <v>955</v>
+        <v>3120</v>
       </c>
       <c r="U38" t="str">
-        <v>133.5</v>
+        <v>135.5</v>
       </c>
       <c r="V38" t="str">
-        <v>885</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B39" t="str">
-        <v>7370</v>
+        <v>3740</v>
       </c>
       <c r="C39" t="str">
-        <v>98.5</v>
+        <v>102.5</v>
       </c>
       <c r="D39" t="str">
-        <v>9260</v>
+        <v>10500</v>
       </c>
       <c r="E39" t="str">
-        <v>119.16</v>
+        <v>123.16</v>
       </c>
       <c r="F39" t="str">
-        <v>7110</v>
+        <v>6800</v>
       </c>
       <c r="G39" t="str">
-        <v>98.66</v>
+        <v>100.66</v>
       </c>
       <c r="H39" t="str">
-        <v>11600</v>
+        <v>9520</v>
       </c>
       <c r="I39" t="str">
-        <v>135.5</v>
+        <v>137.5</v>
       </c>
       <c r="J39" t="str">
-        <v>4170</v>
+        <v>2590</v>
       </c>
       <c r="M39" t="str">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N39" t="str">
-        <v>1760</v>
+        <v>936</v>
       </c>
       <c r="O39" t="str">
-        <v>98.5</v>
+        <v>102.5</v>
       </c>
       <c r="P39" t="str">
-        <v>2500</v>
+        <v>2460</v>
       </c>
       <c r="Q39" t="str">
-        <v>119.16</v>
+        <v>123.16</v>
       </c>
       <c r="R39" t="str">
-        <v>1790</v>
+        <v>1430</v>
       </c>
       <c r="S39" t="str">
-        <v>98.66</v>
+        <v>100.66</v>
       </c>
       <c r="T39" t="str">
-        <v>3120</v>
+        <v>2540</v>
       </c>
       <c r="U39" t="str">
-        <v>135.5</v>
+        <v>137.5</v>
       </c>
       <c r="V39" t="str">
-        <v>1240</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
-        <v>129</v>
-      </c>
-      <c r="B40" t="str">
-        <v>3740</v>
-      </c>
-      <c r="C40" t="str">
-        <v>102.5</v>
-      </c>
-      <c r="D40" t="str">
-        <v>10500</v>
-      </c>
-      <c r="E40" t="str">
-        <v>123.16</v>
-      </c>
-      <c r="F40" t="str">
-        <v>6800</v>
-      </c>
       <c r="G40" t="str">
-        <v>100.66</v>
+        <v>104.66</v>
       </c>
       <c r="H40" t="str">
-        <v>9520</v>
+        <v>6490</v>
       </c>
       <c r="I40" t="str">
-        <v>137.5</v>
+        <v>141.5</v>
       </c>
       <c r="J40" t="str">
-        <v>2590</v>
-      </c>
-      <c r="M40" t="str">
-        <v>129</v>
-      </c>
-      <c r="N40" t="str">
-        <v>936</v>
-      </c>
-      <c r="O40" t="str">
-        <v>102.5</v>
-      </c>
-      <c r="P40" t="str">
-        <v>2460</v>
-      </c>
-      <c r="Q40" t="str">
-        <v>123.16</v>
-      </c>
-      <c r="R40" t="str">
-        <v>1430</v>
+        <v>6180</v>
       </c>
       <c r="S40" t="str">
-        <v>100.66</v>
+        <v>104.66</v>
       </c>
       <c r="T40" t="str">
-        <v>2540</v>
+        <v>1870</v>
       </c>
       <c r="U40" t="str">
-        <v>137.5</v>
+        <v>141.5</v>
       </c>
       <c r="V40" t="str">
-        <v>747</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="str">
-        <v>104.66</v>
+        <v>108.66</v>
       </c>
       <c r="H41" t="str">
-        <v>6490</v>
+        <v>5830</v>
       </c>
       <c r="I41" t="str">
-        <v>141.5</v>
+        <v>145.5</v>
       </c>
       <c r="J41" t="str">
-        <v>6180</v>
+        <v>5140</v>
       </c>
       <c r="S41" t="str">
-        <v>104.66</v>
+        <v>108.66</v>
       </c>
       <c r="T41" t="str">
-        <v>1870</v>
+        <v>1640</v>
       </c>
       <c r="U41" t="str">
-        <v>141.5</v>
+        <v>145.5</v>
       </c>
       <c r="V41" t="str">
-        <v>1730</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="str">
-        <v>108.66</v>
-      </c>
-      <c r="H42" t="str">
-        <v>5830</v>
-      </c>
       <c r="I42" t="str">
-        <v>145.5</v>
+        <v>157.5</v>
       </c>
       <c r="J42" t="str">
-        <v>5140</v>
-      </c>
-      <c r="S42" t="str">
-        <v>108.66</v>
-      </c>
-      <c r="T42" t="str">
-        <v>1640</v>
+        <v>5220</v>
       </c>
       <c r="U42" t="str">
-        <v>145.5</v>
+        <v>157.5</v>
       </c>
       <c r="V42" t="str">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="I43" t="str">
-        <v>157.5</v>
-      </c>
-      <c r="J43" t="str">
-        <v>5220</v>
-      </c>
-      <c r="U43" t="str">
-        <v>157.5</v>
-      </c>
-      <c r="V43" t="str">
         <v>1440</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>CMS colistin A_77.8 %</v>
+      </c>
+      <c r="M47" t="str">
+        <v>CMS colistin B_22.2 %</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>CMS colistin A_77.8 %</v>
+        <v>Human 1</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Human 2</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Human 3</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Human 4</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Human 5</v>
       </c>
       <c r="M48" t="str">
-        <v>CMS colistin B_22.2 %</v>
+        <v>Human 1</v>
+      </c>
+      <c r="O48" t="str">
+        <v>Human 2</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>Human 3</v>
+      </c>
+      <c r="S48" t="str">
+        <v>Human 4</v>
+      </c>
+      <c r="U48" t="str">
+        <v>Human 5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Human 1</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="B49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="C49" t="str">
-        <v>Human 2</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="D49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="E49" t="str">
-        <v>Human 3</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="F49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="G49" t="str">
-        <v>Human 4</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="H49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="I49" t="str">
-        <v>Human 5</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="J49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="M49" t="str">
-        <v>Human 1</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="N49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="O49" t="str">
-        <v>Human 2</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="P49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="Q49" t="str">
-        <v>Human 3</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="R49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="S49" t="str">
-        <v>Human 4</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="T49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="U49" t="str">
-        <v>Human 5</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="V49" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="B50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="C50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="D50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="E50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="F50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="G50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="H50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="I50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="J50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="M50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="N50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="O50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="P50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="R50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="S50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="T50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="U50" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="V50" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B51" t="str">
         <v>0</v>
       </c>
       <c r="C51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D51" t="str">
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F51" t="str">
         <v>0</v>
       </c>
       <c r="G51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="str">
         <v>0</v>
       </c>
       <c r="I51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J51" t="str">
         <v>0</v>
       </c>
       <c r="M51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N51" t="str">
         <v>0</v>
       </c>
       <c r="O51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P51" t="str">
         <v>0</v>
       </c>
       <c r="Q51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51" t="str">
         <v>0</v>
       </c>
       <c r="S51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T51" t="str">
         <v>0</v>
       </c>
       <c r="U51" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V51" t="str">
         <v>0</v>
@@ -2253,771 +2253,741 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="B52" t="str">
-        <v>2802.6</v>
+        <v>14387.6</v>
       </c>
       <c r="C52" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="str">
-        <v>695.4</v>
+        <v>14132.8</v>
       </c>
       <c r="E52" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F52" t="str">
-        <v>788.3</v>
+        <v>38846.6</v>
       </c>
       <c r="G52" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="str">
-        <v>1155.5</v>
+        <v>12019.7</v>
       </c>
       <c r="I52" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J52" t="str">
-        <v>1311.4</v>
+        <v>12275.9</v>
       </c>
       <c r="M52" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N52" t="str">
-        <v>950.2</v>
+        <v>2975.9</v>
       </c>
       <c r="O52" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P52" t="str">
-        <v>422.0</v>
+        <v>4250.3</v>
       </c>
       <c r="Q52" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R52" t="str">
-        <v>581.0</v>
+        <v>11454.6</v>
       </c>
       <c r="S52" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="T52" t="str">
-        <v>455.0</v>
+        <v>3545.8</v>
       </c>
       <c r="U52" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="V52" t="str">
-        <v>491.9</v>
+        <v>3175.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B53" t="str">
-        <v>14387.6</v>
+        <v>16111.1</v>
       </c>
       <c r="C53" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D53" t="str">
-        <v>14132.8</v>
+        <v>12978.8</v>
       </c>
       <c r="E53" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F53" t="str">
-        <v>38846.6</v>
+        <v>29389.7</v>
       </c>
       <c r="G53" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="str">
-        <v>12019.7</v>
+        <v>15767.9</v>
       </c>
       <c r="I53" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J53" t="str">
-        <v>12275.9</v>
+        <v>9821.0</v>
       </c>
       <c r="M53" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N53" t="str">
-        <v>2975.9</v>
+        <v>3322.1</v>
       </c>
       <c r="O53" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P53" t="str">
-        <v>4250.3</v>
+        <v>4193.4</v>
       </c>
       <c r="Q53" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R53" t="str">
-        <v>11454.6</v>
+        <v>9289.0</v>
       </c>
       <c r="S53" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T53" t="str">
-        <v>3545.8</v>
+        <v>4567.3</v>
       </c>
       <c r="U53" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V53" t="str">
-        <v>3175.0</v>
+        <v>2709.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B54" t="str">
-        <v>16111.1</v>
+        <v>12049.6</v>
       </c>
       <c r="C54" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D54" t="str">
-        <v>12978.8</v>
+        <v>10191.2</v>
       </c>
       <c r="E54" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="str">
-        <v>29389.7</v>
+        <v>17639.8</v>
       </c>
       <c r="G54" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="str">
-        <v>15767.9</v>
+        <v>11660.0</v>
       </c>
       <c r="I54" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J54" t="str">
-        <v>9821.0</v>
+        <v>11499.6</v>
       </c>
       <c r="M54" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N54" t="str">
-        <v>3322.1</v>
+        <v>2714.4</v>
       </c>
       <c r="O54" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P54" t="str">
-        <v>4193.4</v>
+        <v>3598.4</v>
       </c>
       <c r="Q54" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R54" t="str">
-        <v>9289.0</v>
+        <v>6149.2</v>
       </c>
       <c r="S54" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="str">
-        <v>4567.3</v>
+        <v>3764.8</v>
       </c>
       <c r="U54" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V54" t="str">
-        <v>2709.2</v>
+        <v>3235.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55" t="str">
-        <v>12049.6</v>
+        <v>2442.9</v>
       </c>
       <c r="C55" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D55" t="str">
-        <v>10191.2</v>
+        <v>2248.1</v>
       </c>
       <c r="E55" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" t="str">
-        <v>17639.8</v>
+        <v>9411.9</v>
       </c>
       <c r="G55" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H55" t="str">
-        <v>11660.0</v>
+        <v>7088.9</v>
       </c>
       <c r="I55" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J55" t="str">
-        <v>11499.6</v>
+        <v>5244.0</v>
       </c>
       <c r="M55" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N55" t="str">
-        <v>2714.4</v>
+        <v>1102.3</v>
       </c>
       <c r="O55" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P55" t="str">
-        <v>3598.4</v>
+        <v>1779.0</v>
       </c>
       <c r="Q55" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R55" t="str">
-        <v>6149.2</v>
+        <v>4443.7</v>
       </c>
       <c r="S55" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="T55" t="str">
-        <v>3764.8</v>
+        <v>2433.9</v>
       </c>
       <c r="U55" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="V55" t="str">
-        <v>3235.9</v>
+        <v>1746.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B56" t="str">
-        <v>2442.9</v>
+        <v>30.0</v>
       </c>
       <c r="C56" t="str">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="D56" t="str">
-        <v>2248.1</v>
+        <v>854.3</v>
       </c>
       <c r="E56" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F56" t="str">
-        <v>9411.9</v>
+        <v>2502.8</v>
       </c>
       <c r="G56" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="H56" t="str">
-        <v>7088.9</v>
+        <v>5125.6</v>
       </c>
       <c r="I56" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="J56" t="str">
-        <v>5244.0</v>
+        <v>4391.2</v>
       </c>
       <c r="M56" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N56" t="str">
-        <v>1102.3</v>
+        <v>543.1</v>
       </c>
       <c r="O56" t="str">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="P56" t="str">
-        <v>1779.0</v>
+        <v>1401.3</v>
       </c>
       <c r="Q56" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R56" t="str">
-        <v>4443.7</v>
+        <v>2673.7</v>
       </c>
       <c r="S56" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="T56" t="str">
-        <v>2433.9</v>
+        <v>2335.0</v>
       </c>
       <c r="U56" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="V56" t="str">
-        <v>1746.0</v>
+        <v>1620.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B57" t="str">
-        <v>30.0</v>
+        <v>689.4</v>
       </c>
       <c r="C57" t="str">
-        <v>8.5</v>
+        <v>93.5</v>
       </c>
       <c r="D57" t="str">
-        <v>854.3</v>
+        <v>1498.7</v>
       </c>
       <c r="E57" t="str">
-        <v>8</v>
+        <v>115.16</v>
       </c>
       <c r="F57" t="str">
-        <v>2502.8</v>
+        <v>6114.7</v>
       </c>
       <c r="G57" t="str">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="H57" t="str">
-        <v>5125.6</v>
+        <v>3986.6</v>
       </c>
       <c r="I57" t="str">
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
       <c r="J57" t="str">
-        <v>4391.2</v>
+        <v>3261.2</v>
       </c>
       <c r="M57" t="str">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="N57" t="str">
-        <v>543.1</v>
+        <v>553.8</v>
       </c>
       <c r="O57" t="str">
-        <v>8.5</v>
+        <v>93.5</v>
       </c>
       <c r="P57" t="str">
-        <v>1401.3</v>
+        <v>1936.3</v>
       </c>
       <c r="Q57" t="str">
-        <v>8</v>
+        <v>115.16</v>
       </c>
       <c r="R57" t="str">
-        <v>2673.7</v>
+        <v>2298.1</v>
       </c>
       <c r="S57" t="str">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="T57" t="str">
-        <v>2335.0</v>
+        <v>1402.9</v>
       </c>
       <c r="U57" t="str">
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
       <c r="V57" t="str">
-        <v>1620.9</v>
+        <v>1203.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B58" t="str">
-        <v>689.4</v>
+        <v>20172.6</v>
       </c>
       <c r="C58" t="str">
-        <v>93.5</v>
+        <v>96.5</v>
       </c>
       <c r="D58" t="str">
-        <v>1498.7</v>
+        <v>3596.9</v>
       </c>
       <c r="E58" t="str">
-        <v>115.16</v>
+        <v>117.16</v>
       </c>
       <c r="F58" t="str">
-        <v>6114.7</v>
+        <v>10820.7</v>
       </c>
       <c r="G58" t="str">
-        <v>12.5</v>
+        <v>96.66</v>
       </c>
       <c r="H58" t="str">
-        <v>3986.6</v>
+        <v>2338.0</v>
       </c>
       <c r="I58" t="str">
-        <v>24.5</v>
+        <v>133.5</v>
       </c>
       <c r="J58" t="str">
-        <v>3261.2</v>
+        <v>1933.3</v>
       </c>
       <c r="M58" t="str">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N58" t="str">
-        <v>553.8</v>
+        <v>4014.6</v>
       </c>
       <c r="O58" t="str">
-        <v>93.5</v>
+        <v>96.5</v>
       </c>
       <c r="P58" t="str">
-        <v>1936.3</v>
+        <v>3551.9</v>
       </c>
       <c r="Q58" t="str">
-        <v>115.16</v>
+        <v>117.16</v>
       </c>
       <c r="R58" t="str">
-        <v>2298.1</v>
+        <v>3337.8</v>
       </c>
       <c r="S58" t="str">
-        <v>12.5</v>
+        <v>96.66</v>
       </c>
       <c r="T58" t="str">
-        <v>1402.9</v>
+        <v>1292.5</v>
       </c>
       <c r="U58" t="str">
-        <v>24.5</v>
+        <v>133.5</v>
       </c>
       <c r="V58" t="str">
-        <v>1203.5</v>
+        <v>1155.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" t="str">
-        <v>20172.6</v>
+        <v>5530.2</v>
       </c>
       <c r="C59" t="str">
-        <v>96.5</v>
+        <v>98.5</v>
       </c>
       <c r="D59" t="str">
-        <v>3596.9</v>
+        <v>1543.7</v>
       </c>
       <c r="E59" t="str">
-        <v>117.16</v>
+        <v>119.16</v>
       </c>
       <c r="F59" t="str">
-        <v>10820.7</v>
+        <v>614.5</v>
       </c>
       <c r="G59" t="str">
-        <v>96.66</v>
+        <v>98.66</v>
       </c>
       <c r="H59" t="str">
-        <v>2338.0</v>
+        <v>13023.8</v>
       </c>
       <c r="I59" t="str">
-        <v>133.5</v>
+        <v>135.5</v>
       </c>
       <c r="J59" t="str">
-        <v>1933.3</v>
+        <v>4720.9</v>
       </c>
       <c r="M59" t="str">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N59" t="str">
-        <v>4014.6</v>
+        <v>1597.0</v>
       </c>
       <c r="O59" t="str">
-        <v>96.5</v>
+        <v>98.5</v>
       </c>
       <c r="P59" t="str">
-        <v>3551.9</v>
+        <v>3154.8</v>
       </c>
       <c r="Q59" t="str">
-        <v>117.16</v>
+        <v>119.16</v>
       </c>
       <c r="R59" t="str">
-        <v>3337.8</v>
+        <v>2218.1</v>
       </c>
       <c r="S59" t="str">
-        <v>96.66</v>
+        <v>98.66</v>
       </c>
       <c r="T59" t="str">
-        <v>1292.5</v>
+        <v>4434.7</v>
       </c>
       <c r="U59" t="str">
-        <v>133.5</v>
+        <v>135.5</v>
       </c>
       <c r="V59" t="str">
-        <v>1155.5</v>
+        <v>1760.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B60" t="str">
-        <v>5530.2</v>
+        <v>404.7</v>
       </c>
       <c r="C60" t="str">
-        <v>98.5</v>
+        <v>102.5</v>
       </c>
       <c r="D60" t="str">
-        <v>1543.7</v>
+        <v>1139.0</v>
       </c>
       <c r="E60" t="str">
-        <v>119.16</v>
+        <v>123.16</v>
       </c>
       <c r="F60" t="str">
-        <v>614.5</v>
+        <v>1438.8</v>
       </c>
       <c r="G60" t="str">
-        <v>98.66</v>
+        <v>100.66</v>
       </c>
       <c r="H60" t="str">
-        <v>13023.8</v>
+        <v>9966.4</v>
       </c>
       <c r="I60" t="str">
-        <v>135.5</v>
+        <v>137.5</v>
       </c>
       <c r="J60" t="str">
-        <v>4720.9</v>
+        <v>2278.0</v>
       </c>
       <c r="M60" t="str">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N60" t="str">
-        <v>1597.0</v>
+        <v>790.4</v>
       </c>
       <c r="O60" t="str">
-        <v>98.5</v>
+        <v>102.5</v>
       </c>
       <c r="P60" t="str">
-        <v>3154.8</v>
+        <v>2952.5</v>
       </c>
       <c r="Q60" t="str">
-        <v>119.16</v>
+        <v>123.16</v>
       </c>
       <c r="R60" t="str">
-        <v>2218.1</v>
+        <v>1681.6</v>
       </c>
       <c r="S60" t="str">
-        <v>98.66</v>
+        <v>100.66</v>
       </c>
       <c r="T60" t="str">
-        <v>4434.7</v>
+        <v>3574.4</v>
       </c>
       <c r="U60" t="str">
-        <v>135.5</v>
+        <v>137.5</v>
       </c>
       <c r="V60" t="str">
-        <v>1760.4</v>
+        <v>1027.5</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
-        <v>129</v>
-      </c>
-      <c r="B61" t="str">
-        <v>404.7</v>
-      </c>
-      <c r="C61" t="str">
-        <v>102.5</v>
-      </c>
-      <c r="D61" t="str">
-        <v>1139.0</v>
-      </c>
-      <c r="E61" t="str">
-        <v>123.16</v>
-      </c>
-      <c r="F61" t="str">
-        <v>1438.8</v>
-      </c>
       <c r="G61" t="str">
-        <v>100.66</v>
+        <v>104.66</v>
       </c>
       <c r="H61" t="str">
-        <v>9966.4</v>
+        <v>6864.1</v>
       </c>
       <c r="I61" t="str">
-        <v>137.5</v>
+        <v>141.5</v>
       </c>
       <c r="J61" t="str">
-        <v>2278.0</v>
-      </c>
-      <c r="M61" t="str">
-        <v>129</v>
-      </c>
-      <c r="N61" t="str">
-        <v>790.4</v>
-      </c>
-      <c r="O61" t="str">
-        <v>102.5</v>
-      </c>
-      <c r="P61" t="str">
-        <v>2952.5</v>
-      </c>
-      <c r="Q61" t="str">
-        <v>123.16</v>
-      </c>
-      <c r="R61" t="str">
-        <v>1681.6</v>
+        <v>7658.4</v>
       </c>
       <c r="S61" t="str">
-        <v>100.66</v>
+        <v>104.66</v>
       </c>
       <c r="T61" t="str">
-        <v>3574.4</v>
+        <v>2642.2</v>
       </c>
       <c r="U61" t="str">
-        <v>137.5</v>
+        <v>141.5</v>
       </c>
       <c r="V61" t="str">
-        <v>1027.5</v>
+        <v>2498.2</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="str">
-        <v>104.66</v>
+        <v>108.66</v>
       </c>
       <c r="H62" t="str">
-        <v>6864.1</v>
+        <v>5635.2</v>
       </c>
       <c r="I62" t="str">
-        <v>141.5</v>
+        <v>145.5</v>
       </c>
       <c r="J62" t="str">
-        <v>7658.4</v>
+        <v>5575.2</v>
       </c>
       <c r="S62" t="str">
-        <v>104.66</v>
+        <v>108.66</v>
       </c>
       <c r="T62" t="str">
-        <v>2642.2</v>
+        <v>2291.5</v>
       </c>
       <c r="U62" t="str">
-        <v>141.5</v>
+        <v>145.5</v>
       </c>
       <c r="V62" t="str">
-        <v>2498.2</v>
+        <v>2078.9</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="str">
-        <v>108.66</v>
-      </c>
-      <c r="H63" t="str">
-        <v>5635.2</v>
-      </c>
       <c r="I63" t="str">
-        <v>145.5</v>
+        <v>157.5</v>
       </c>
       <c r="J63" t="str">
-        <v>5575.2</v>
-      </c>
-      <c r="S63" t="str">
-        <v>108.66</v>
-      </c>
-      <c r="T63" t="str">
-        <v>2291.5</v>
+        <v>6294.6</v>
       </c>
       <c r="U63" t="str">
-        <v>145.5</v>
+        <v>157.5</v>
       </c>
       <c r="V63" t="str">
-        <v>2078.9</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="I64" t="str">
-        <v>157.5</v>
-      </c>
-      <c r="J64" t="str">
-        <v>6294.6</v>
-      </c>
-      <c r="U64" t="str">
-        <v>157.5</v>
-      </c>
-      <c r="V64" t="str">
         <v>2063.9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>CMS</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>CMS</v>
+        <v>Human 1</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Human 2</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Human 3</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Human 4</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Human 5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Human 1</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="B68" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="C68" t="str">
-        <v>Human 2</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="D68" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="E68" t="str">
-        <v>Human 3</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="F68" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="G68" t="str">
-        <v>Human 4</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="H68" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
       <c r="I68" t="str">
-        <v>Human 5</v>
+        <v>Time (hr)</v>
+      </c>
+      <c r="J68" t="str">
+        <v>conc. (ng/ml)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="B69" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="C69" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="D69" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="E69" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="F69" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="G69" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="H69" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
       <c r="I69" t="str">
-        <v>Time (hr)</v>
+        <v>0</v>
       </c>
       <c r="J69" t="str">
-        <v>conc. (ng/ml)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B70" t="str">
         <v>0</v>
       </c>
       <c r="C70" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D70" t="str">
         <v>0</v>
       </c>
       <c r="E70" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F70" t="str">
         <v>0</v>
       </c>
       <c r="G70" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="str">
         <v>0</v>
       </c>
       <c r="I70" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J70" t="str">
         <v>0</v>
@@ -3025,363 +2995,331 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="B71" t="str">
-        <v>3752.8</v>
+        <v>17363.5</v>
       </c>
       <c r="C71" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="str">
-        <v>1117.4</v>
+        <v>18383.2</v>
       </c>
       <c r="E71" t="str">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F71" t="str">
-        <v>1369.4</v>
+        <v>50301.2</v>
       </c>
       <c r="G71" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H71" t="str">
-        <v>1610.5</v>
+        <v>15565.5</v>
       </c>
       <c r="I71" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J71" t="str">
-        <v>1803.2</v>
+        <v>15451.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>17363.5</v>
+        <v>19433.3</v>
       </c>
       <c r="C72" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D72" t="str">
-        <v>18383.2</v>
+        <v>17172.2</v>
       </c>
       <c r="E72" t="str">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F72" t="str">
-        <v>50301.2</v>
+        <v>38678.7</v>
       </c>
       <c r="G72" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="str">
-        <v>15565.5</v>
+        <v>20335.2</v>
       </c>
       <c r="I72" t="str">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J72" t="str">
-        <v>15451.0</v>
+        <v>12530.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B73" t="str">
-        <v>19433.3</v>
+        <v>14764.1</v>
       </c>
       <c r="C73" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D73" t="str">
-        <v>17172.2</v>
+        <v>13789.6</v>
       </c>
       <c r="E73" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="str">
-        <v>38678.7</v>
+        <v>23789.0</v>
       </c>
       <c r="G73" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="str">
-        <v>20335.2</v>
+        <v>15424.7</v>
       </c>
       <c r="I73" t="str">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J73" t="str">
-        <v>12530.3</v>
+        <v>14735.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B74" t="str">
-        <v>14764.1</v>
+        <v>3545.2</v>
       </c>
       <c r="C74" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D74" t="str">
-        <v>13789.6</v>
+        <v>4027.0</v>
       </c>
       <c r="E74" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F74" t="str">
-        <v>23789.0</v>
+        <v>13855.6</v>
       </c>
       <c r="G74" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H74" t="str">
-        <v>15424.7</v>
+        <v>9522.8</v>
       </c>
       <c r="I74" t="str">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J74" t="str">
-        <v>14735.5</v>
+        <v>6990.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B75" t="str">
-        <v>3545.2</v>
+        <v>573.1</v>
       </c>
       <c r="C75" t="str">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="D75" t="str">
-        <v>4027.0</v>
+        <v>2255.6</v>
       </c>
       <c r="E75" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F75" t="str">
-        <v>13855.6</v>
+        <v>5176.5</v>
       </c>
       <c r="G75" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="H75" t="str">
-        <v>9522.8</v>
+        <v>7460.6</v>
       </c>
       <c r="I75" t="str">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="J75" t="str">
-        <v>6990.0</v>
+        <v>6012.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B76" t="str">
-        <v>573.1</v>
+        <v>1243.2</v>
       </c>
       <c r="C76" t="str">
-        <v>8.5</v>
+        <v>93.5</v>
       </c>
       <c r="D76" t="str">
-        <v>2255.6</v>
+        <v>3435.0</v>
       </c>
       <c r="E76" t="str">
-        <v>8</v>
+        <v>115.16</v>
       </c>
       <c r="F76" t="str">
-        <v>5176.5</v>
+        <v>8412.9</v>
       </c>
       <c r="G76" t="str">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="H76" t="str">
-        <v>7460.6</v>
+        <v>5389.5</v>
       </c>
       <c r="I76" t="str">
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
       <c r="J76" t="str">
-        <v>6012.1</v>
+        <v>4464.7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" t="str">
-        <v>1243.2</v>
+        <v>24187.3</v>
       </c>
       <c r="C77" t="str">
-        <v>93.5</v>
+        <v>96.5</v>
       </c>
       <c r="D77" t="str">
-        <v>3435.0</v>
+        <v>7148.8</v>
       </c>
       <c r="E77" t="str">
-        <v>115.16</v>
+        <v>117.16</v>
       </c>
       <c r="F77" t="str">
-        <v>8412.9</v>
+        <v>14158.5</v>
       </c>
       <c r="G77" t="str">
-        <v>12.5</v>
+        <v>96.66</v>
       </c>
       <c r="H77" t="str">
-        <v>5389.5</v>
+        <v>3630.5</v>
       </c>
       <c r="I77" t="str">
-        <v>24.5</v>
+        <v>133.5</v>
       </c>
       <c r="J77" t="str">
-        <v>4464.7</v>
+        <v>3088.8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" t="str">
-        <v>24187.3</v>
+        <v>7127.2</v>
       </c>
       <c r="C78" t="str">
-        <v>96.5</v>
+        <v>98.5</v>
       </c>
       <c r="D78" t="str">
-        <v>7148.8</v>
+        <v>4698.5</v>
       </c>
       <c r="E78" t="str">
-        <v>117.16</v>
+        <v>119.16</v>
       </c>
       <c r="F78" t="str">
-        <v>14158.5</v>
+        <v>2832.6</v>
       </c>
       <c r="G78" t="str">
-        <v>96.66</v>
+        <v>98.66</v>
       </c>
       <c r="H78" t="str">
-        <v>3630.5</v>
+        <v>17458.5</v>
       </c>
       <c r="I78" t="str">
-        <v>133.5</v>
+        <v>135.5</v>
       </c>
       <c r="J78" t="str">
-        <v>3088.8</v>
+        <v>6481.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B79" t="str">
-        <v>7127.2</v>
+        <v>1195.1</v>
       </c>
       <c r="C79" t="str">
-        <v>98.5</v>
+        <v>102.5</v>
       </c>
       <c r="D79" t="str">
-        <v>4698.5</v>
+        <v>4091.5</v>
       </c>
       <c r="E79" t="str">
-        <v>119.16</v>
+        <v>123.16</v>
       </c>
       <c r="F79" t="str">
-        <v>2832.6</v>
+        <v>3120.3</v>
       </c>
       <c r="G79" t="str">
-        <v>98.66</v>
+        <v>100.66</v>
       </c>
       <c r="H79" t="str">
-        <v>17458.5</v>
+        <v>13540.8</v>
       </c>
       <c r="I79" t="str">
-        <v>135.5</v>
+        <v>137.5</v>
       </c>
       <c r="J79" t="str">
-        <v>6481.3</v>
+        <v>3305.6</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="str">
-        <v>129</v>
-      </c>
-      <c r="B80" t="str">
-        <v>1195.1</v>
-      </c>
-      <c r="C80" t="str">
-        <v>102.5</v>
-      </c>
-      <c r="D80" t="str">
-        <v>4091.5</v>
-      </c>
-      <c r="E80" t="str">
-        <v>123.16</v>
-      </c>
-      <c r="F80" t="str">
-        <v>3120.3</v>
-      </c>
       <c r="G80" t="str">
-        <v>100.66</v>
+        <v>104.66</v>
       </c>
       <c r="H80" t="str">
-        <v>13540.8</v>
+        <v>9506.3</v>
       </c>
       <c r="I80" t="str">
-        <v>137.5</v>
+        <v>141.5</v>
       </c>
       <c r="J80" t="str">
-        <v>3305.6</v>
+        <v>10156.6</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="str">
-        <v>104.66</v>
+        <v>108.66</v>
       </c>
       <c r="H81" t="str">
-        <v>9506.3</v>
+        <v>7926.7</v>
       </c>
       <c r="I81" t="str">
-        <v>141.5</v>
+        <v>145.5</v>
       </c>
       <c r="J81" t="str">
-        <v>10156.6</v>
+        <v>7654.1</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="str">
-        <v>108.66</v>
-      </c>
-      <c r="H82" t="str">
-        <v>7926.7</v>
-      </c>
       <c r="I82" t="str">
-        <v>145.5</v>
+        <v>157.5</v>
       </c>
       <c r="J82" t="str">
-        <v>7654.1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="I83" t="str">
-        <v>157.5</v>
-      </c>
-      <c r="J83" t="str">
         <v>8358.5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V82"/>
   </ignoredErrors>
 </worksheet>
 </file>